--- a/YAML-CREATION/ROOM-TYPE-AQT/aqt.xlsx
+++ b/YAML-CREATION/ROOM-TYPE-AQT/aqt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GCP-LOCAL-CLONE\YAML-CREATION\ROOM-TYPE-AQT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\ROOM-TYPE-AQT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009C983-88D6-4581-8641-0A687B0F4FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">assets!$A$1:$U$993</definedName>
     <definedName name="Z_8F6BD52A_E505_4548_B6D8_1C41231C888E_.wvu.FilterData" localSheetId="1">assets!$A$1:$U$993</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -257,9 +258,6 @@
     <t>zone_air_pm2pt5_concentration_sensor_36</t>
   </si>
   <si>
-    <t>AQT</t>
-  </si>
-  <si>
     <t>zone_air_co2_concentartion_sensor_37</t>
   </si>
   <si>
@@ -546,12 +544,15 @@
   </si>
   <si>
     <t>2747211854135059</t>
+  </si>
+  <si>
+    <t>GATEWAYS/PASSTHROUGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="10"/>
@@ -650,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -676,7 +677,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -773,6 +773,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -808,6 +825,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -983,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -1122,13 +1156,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
@@ -1202,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>40</v>
@@ -1223,7 +1257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15">
+    <row r="2" spans="1:22">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -1237,7 +1271,7 @@
         <v>61</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1249,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -1267,21 +1301,20 @@
         <v>62</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="S2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="10"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="15">
+    <row r="3" spans="1:22">
       <c r="A3" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -1293,7 +1326,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1305,16 +1338,16 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M3" t="s">
         <v>64</v>
@@ -1323,109 +1356,108 @@
         <v>62</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="T3" s="10"/>
+        <v>169</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:22">
       <c r="O4" s="3"/>
-      <c r="P4" s="15"/>
+      <c r="P4" s="13"/>
       <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:22">
       <c r="O5" s="3"/>
-      <c r="P5" s="15"/>
+      <c r="P5" s="13"/>
       <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:22">
       <c r="O6" s="3"/>
-      <c r="P6" s="16"/>
+      <c r="P6" s="15"/>
       <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:22">
       <c r="E7" s="8"/>
       <c r="I7" s="8"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="16"/>
+      <c r="P7" s="15"/>
       <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:22">
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="16"/>
+      <c r="P8" s="15"/>
       <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:22">
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="16"/>
+      <c r="P9" s="15"/>
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:22">
       <c r="O10" s="3"/>
-      <c r="P10" s="16"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:22">
       <c r="O11" s="3"/>
-      <c r="P11" s="16"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="16"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="8"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="16"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:22">
       <c r="O14" s="3"/>
-      <c r="P14" s="16"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:22">
       <c r="O15" s="3"/>
-      <c r="P15" s="16"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:22">
       <c r="O16" s="3"/>
-      <c r="P16" s="16"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:22">
       <c r="O17" s="3"/>
-      <c r="P17" s="16"/>
+      <c r="P17" s="15"/>
       <c r="R17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:22">
       <c r="O18" s="3"/>
-      <c r="P18" s="16"/>
+      <c r="P18" s="15"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22">
       <c r="O19" s="3"/>
-      <c r="P19" s="16"/>
+      <c r="P19" s="15"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:22">
       <c r="O20" s="3"/>
-      <c r="P20" s="16"/>
+      <c r="P20" s="15"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:22">
       <c r="O21" s="3"/>
-      <c r="P21" s="16"/>
+      <c r="P21" s="15"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:22" ht="15">
@@ -1433,7 +1465,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="16"/>
+      <c r="P22" s="15"/>
       <c r="S22" s="10"/>
       <c r="U22" s="2"/>
     </row>
@@ -1442,7 +1474,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="16"/>
+      <c r="P23" s="15"/>
       <c r="S23" s="10"/>
       <c r="U23" s="2"/>
     </row>
@@ -1451,7 +1483,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="16"/>
+      <c r="P24" s="15"/>
       <c r="S24" s="10"/>
       <c r="U24" s="2"/>
     </row>
@@ -1460,7 +1492,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="16"/>
+      <c r="P25" s="15"/>
       <c r="S25" s="10"/>
       <c r="U25" s="2"/>
     </row>
@@ -1469,7 +1501,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="16"/>
+      <c r="P26" s="15"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:22" ht="15">
@@ -1477,7 +1509,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="16"/>
+      <c r="P27" s="15"/>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:22" ht="15">
@@ -1485,7 +1517,7 @@
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="16"/>
+      <c r="P28" s="15"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:22" ht="15">
@@ -1493,7 +1525,7 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="16"/>
+      <c r="P29" s="15"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:22" ht="15">
@@ -1501,7 +1533,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="16"/>
+      <c r="P30" s="15"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:22" ht="15">
@@ -1509,7 +1541,7 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="16"/>
+      <c r="P31" s="15"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:22" ht="15">
@@ -1517,7 +1549,7 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="16"/>
+      <c r="P32" s="15"/>
       <c r="S32" s="10"/>
     </row>
   </sheetData>
@@ -1528,11 +1560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G849"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1579,7 +1611,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="11" t="s">
@@ -1598,7 +1630,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="11" t="s">
@@ -1617,7 +1649,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="11" t="s">
@@ -1636,7 +1668,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="11" t="s">
@@ -1655,7 +1687,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="12" t="s">
@@ -1671,14 +1703,14 @@
         <v>68</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1690,14 +1722,14 @@
         <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1709,14 +1741,14 @@
         <v>68</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1728,14 +1760,14 @@
         <v>68</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1747,14 +1779,14 @@
         <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1766,14 +1798,14 @@
         <v>68</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1785,14 +1817,14 @@
         <v>68</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1804,14 +1836,14 @@
         <v>68</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1823,14 +1855,14 @@
         <v>68</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1842,14 +1874,14 @@
         <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1861,14 +1893,14 @@
         <v>68</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1880,14 +1912,14 @@
         <v>68</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1899,13 +1931,13 @@
         <v>68</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1917,14 +1949,14 @@
         <v>68</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1936,13 +1968,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1954,14 +1986,14 @@
         <v>68</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1973,14 +2005,14 @@
         <v>68</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1992,14 +2024,14 @@
         <v>68</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2011,14 +2043,14 @@
         <v>68</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2030,14 +2062,14 @@
         <v>68</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2049,14 +2081,14 @@
         <v>68</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2068,14 +2100,14 @@
         <v>68</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2087,14 +2119,14 @@
         <v>68</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2106,14 +2138,14 @@
         <v>68</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2125,14 +2157,14 @@
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2144,14 +2176,14 @@
         <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2163,14 +2195,14 @@
         <v>68</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2182,14 +2214,14 @@
         <v>68</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2201,14 +2233,14 @@
         <v>68</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2220,14 +2252,14 @@
         <v>68</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2239,14 +2271,14 @@
         <v>68</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2258,14 +2290,14 @@
         <v>68</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2277,14 +2309,14 @@
         <v>68</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2296,14 +2328,14 @@
         <v>68</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2315,14 +2347,14 @@
         <v>68</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2334,14 +2366,14 @@
         <v>68</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2353,13 +2385,13 @@
         <v>68</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2371,13 +2403,13 @@
         <v>68</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2389,13 +2421,13 @@
         <v>68</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2407,13 +2439,13 @@
         <v>68</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2425,13 +2457,13 @@
         <v>68</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2443,13 +2475,13 @@
         <v>68</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2461,13 +2493,13 @@
         <v>68</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2479,14 +2511,14 @@
         <v>68</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2498,13 +2530,13 @@
         <v>68</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2516,13 +2548,13 @@
         <v>68</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2534,13 +2566,13 @@
         <v>68</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2552,13 +2584,13 @@
         <v>68</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F54" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2570,13 +2602,13 @@
         <v>68</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2588,13 +2620,13 @@
         <v>68</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F56" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2603,16 +2635,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F57" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2621,16 +2653,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F58" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2639,16 +2671,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F59" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2657,16 +2689,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F60" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2675,16 +2707,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F61" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2693,17 +2725,17 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2712,16 +2744,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F63" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2730,16 +2762,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2748,16 +2780,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F65" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2766,16 +2798,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F66" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2784,16 +2816,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F67" s="3" t="str">
         <f t="shared" ref="F67:F91" si="1">CONCATENATE(C67,": ",C67)</f>
@@ -2802,16 +2834,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F68" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2820,16 +2852,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F69" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2838,16 +2870,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2856,16 +2888,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F71" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2874,16 +2906,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F72" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2892,16 +2924,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F73" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2910,16 +2942,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F74" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2928,16 +2960,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F75" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2946,16 +2978,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F76" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2964,16 +2996,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F77" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2982,16 +3014,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F78" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3000,16 +3032,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F79" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3018,17 +3050,17 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F80" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3037,16 +3069,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F81" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3055,16 +3087,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F82" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3073,16 +3105,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F83" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3091,16 +3123,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F84" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3109,16 +3141,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F85" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3127,16 +3159,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F86" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3145,16 +3177,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F87" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3163,16 +3195,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F88" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3181,16 +3213,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F89" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3199,16 +3231,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F90" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3217,16 +3249,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F91" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6098,11 +6130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -6750,7 +6782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7143,7 +7175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
